--- a/TestCase/DPW_POC_VBCS_Fail.xlsx
+++ b/TestCase/DPW_POC_VBCS_Fail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasingh\eclipse\DPW\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA21AB-8A2A-4388-9D2E-A037BBEA8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79673434-5350-47F2-9B5E-2CE372F9341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Keyword</t>
   </si>
@@ -43,15 +43,6 @@
     <t>GV_PortalURL</t>
   </si>
   <si>
-    <t>SignIn_Button</t>
-  </si>
-  <si>
-    <t>HIGHLIGHTER</t>
-  </si>
-  <si>
-    <t>Login_User_Id</t>
-  </si>
-  <si>
     <t>ENTERVALUE</t>
   </si>
   <si>
@@ -61,7 +52,16 @@
     <t>CLICK</t>
   </si>
   <si>
-    <t>usename</t>
+    <t>Sigin</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>xpath://div[@class='nav-search-submit nav-sprite']</t>
+  </si>
+  <si>
+    <t>xpath://input[@id='twotabsearchtextbox']</t>
   </si>
 </sst>
 </file>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -454,37 +454,29 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
